--- a/Owl/主持人手卡.xlsx
+++ b/Owl/主持人手卡.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Constantine-Projects\Owl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C6E86-8D26-422D-A66D-EDAEF01325C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAEDCBF-D8DE-44F6-8ABD-197AD4D89690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="13410" windowHeight="16065" xr2:uid="{5E736A4D-0532-4C57-98AF-F67DC448038A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{5E736A4D-0532-4C57-98AF-F67DC448038A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$A$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$A$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">
 （高峰）回首2025，昂科人如骏马奔腾，在半导体的疆场开拓前行，于AI的浪潮中乘风破浪！
@@ -50,27 +50,6 @@
     <t>9.1 第1轮抽奖：三等奖，共20个名额——抽1-5名
 （高峰）太精彩了！感谢研发平台的同事们，你们用这支充满创意的小人舞，让我们看到了代码之外那份可爱的灵魂，真是让我们眼前一亮，欢乐开怀！
 （陈慧）是的！轻松活泼的节目过后，想必大家的心情和我一样，都充满了喜悦。那么，是时候让这份喜悦升级，为我们的心跳加点儿速了！因为接下来，就是万众期待、激动人心的抽奖环节！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.2 第1轮抽奖：三等奖，共20个名额——抽6-10名
-（高峰）再请XXX帮我们抽取5位幸运观众；
-（陈慧）恭喜以上获奖伙伴，请上台领奖
-请大家合影留念，请大家入席就坐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.3 第1轮抽奖：三等奖，共20个名额——抽11-15名
-（陈慧）接下来有请XXX帮我们抽取5位幸运观众；
-（高峰）恭喜以上获奖伙伴，请上台领奖
-请大家合影留念，请大家入席就坐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4 第1轮抽奖：三等奖，共20个名额——抽16-20名
-（陈慧）最后的5个抽奖名额究竟会花落谁家呢？我们有请XXX帮我们抽取最后5位幸运观众；
-（高峰）恭喜以上获奖伙伴，请上台领奖
-请大家合影留念，请大家入席就坐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,20 +58,6 @@
 而有一群人，他们在四季流转中坚守一线，在千门万户间传递价值；
 他们以专业为犁，以真诚为种，日拱一卒，终迎满园芬芳。
 （秀梅）今天，华南销售区的伙伴们将用一首《业绩开出花》，将这份耕耘的喜悦和收获的甜蜜，唱给我们听！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.2 第2轮抽奖：二等奖，共16个名额——抽6-10名
-（高峰）再请XXX帮我们抽取5位幸运观众；
-（陈慧）恭喜以上获奖伙伴，请上台领奖
-请大家合影留念，请大家入席就坐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.3 第2轮抽奖：二等奖，共16个名额——抽11-16名
-（陈慧）接下来有请XXX帮我们抽取6位幸运观众；
-（高峰）恭喜以上获奖伙伴，请上台领奖
-请大家合影留念，请大家入席就坐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,39 +70,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（永元）
-（例如"公司里面有什么"）(如"笔""记""本"连成"笔记本")。答案不可重复，若小组答错、超时(3秒内没有答出)或重复之前答过的答案，则被淘汰。每淘汰一组，将更换一个问题。
-（秀梅）
-剩余小组继续比赛，最终留下的队伍获胜，组内成员获得抽签资格，依据抽签结果获得不同奖品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（陈慧）此刻，我们将颁发备受瞩目的突出贡献奖。让我们用热烈的掌声，有请颁奖嘉宾XXX上台，为我们揭晓获奖名单！
-（颁奖嘉宾念获奖名单）
-（高峰）感谢这些功臣们，有请获得“突出贡献奖”的功臣们登上荣誉的舞台！（音乐起，获奖者上台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（陈慧）有请颁奖嘉宾XXX为他们颁发这份沉甸甸的、象征莫高荣誉的奖项。
-（高峰）请各位贡献者和颁奖嘉宾合影。这是对你们卓越功绩的最好褒奖，感谢你们！看镜头，记录辉煌！
-（合影留念）
-（陈慧）一份付出，一份收获。感谢你们的突出贡献，也感谢颁奖嘉宾。请大家回到席位上就坐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（秀梅）请颁奖嘉宾和获奖者们移步舞台中央，合影留念。这瞬间的美好，凝聚的是你们携手共进的成果。
 （永元）感谢所有获奖者为团队协作做出的卓越表率，也感谢颁奖嘉宾。请回座。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（高峰）说得非常好。无论是用心唱好一首歌，还是用心服务好每一位客户，背后都需要同样的真诚与努力。接下来，我们要表彰的，正是在销售岗位上将专业与热忱转化为卓越业绩的伙伴们。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（秀梅）有请颁奖嘉宾XXX隆重登场，为我们揭晓答案！
-（嘉宾上台，公布获奖名单并颁奖）
-（永元）有请获奖者XXX上台，请合影留念！
-（引导合影）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -152,26 +86,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（永元）
-每一次转发，都是对昂科故事的认同；
-每一个点赞，都是对身边伙伴的喝彩。
-这不仅是人气的体现，更是我们这个大家庭彼此看见、彼此照亮的温暖见证。
-（秀梅）现在，最激动人心的时刻到了！我们将根据后台统计的数据，为集赞数量名列前茅的“人气王”们颁奖！这份荣誉，属于善于发现美、乐于分享生活的你！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（高峰）（稍作停顿，给观众留出扫码时间）我们后台正在实时统计票数，最终结果激动人心！这不仅是奖项的角逐，更是对所有参演同事辛勤付出最直接、最热烈的肯定！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.2 节目评选颁奖
-（陈慧）好的，投票通道即将关闭！感谢大家的积极参与！现在，最终的结果已经在我手中的这张卡片上！今晚节目的前三名究竟是谁呢？让我们共同揭晓！
-（高峰）获得深圳市昂科技术有限公司2026“AI梦想·芯未来”开年盛典——节目第一名的是……（可制造悬念稍作停顿）——《XXXXX》！恭喜他们！第二名的是《xxx》，第三名的是《xxx》。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（陈慧）让我们用最热烈的掌声，有请以上三个节目的团队代表上台，接受这份属于他们的荣耀！同时，掌声有请颁奖嘉宾X总上台为他们颁奖！
-（高峰）再次恭喜获得最佳节目奖的表演者们！他们的表演真是实至名归，为我们留下了今晚最难忘的回忆之一。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,38 +96,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（陈慧）现在，让我们用最热烈、最持久的掌声，恭请我们今晚最重量级的开奖嘉宾——XXX上台！
-（高峰）（嘉宾上台时）掌声再热烈一些！有请XXX为我们开启这份最大幸运！也请全场的朋友们，屏息凝视，共同见证今晚最幸运的明星诞生！ 
-（陈慧）准备好了吗？现在，有请【嘉宾尊称】为我们抽取本届年会的压轴大奖——特等奖！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.1 阳光普照
-（高峰）恭喜这位超级幸运儿！这份压轴大奖，不仅是一份惊喜，更是2026年好运的序章——愿它伴你一路生花，也照亮我们共同前行的路。
-（永元）温暖延续，惊喜不停。今晚大屏幕上暂未中奖的小伙伴们，均可获得一份“阳光普照奖”——定制金箔，请上台领取。让闪闪金箔，照亮我们继续前行的路！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（秀梅）请大家在舞台侧礼仪处领取金箔，在台上等待合影。
 （指引合照）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.2 合影留念
-（秀梅）请所有获得抽奖红包的伙伴们上台等待合影。
-（抽奖人员上台）
-（永元）有请各位领导移步舞台中央，请所有同事往前靠拢，摄影师已经就位！让我们一起对着镜头，比出最帅的手势，大声喊出我们的口号——“AI”梦想，“芯”未来！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24 结束语
 （永元）时光作渡，奋斗成诗。难忘的2025年已悄然画上圆满的句号。回首望去，那是昂科人用智慧与汗水共同书写的一部攻坚史，我们在挑战中革新生長，在坚守中创新突破。
 （秀梅）是的，每一份成绩单的背后，都凝聚着每一位昂科人的默默奉献与执着追求。感谢所有并肩同行的伙伴，是你们的辛勤付出，铸就了昂科集团2025年的辉煌篇章！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（高峰）站在新年的起点，我们心潮澎湃！回首2025，是我们砥砺前行、硕果盈枝的一年。我们的芯片烧录机业务实现了跨越式发展，这是每一位昂科人用智慧与汗水铸就的荣耀。
-（陈慧）2026年，是AI梦想启航之年，更是“芯”未来布局的关键之年。在芯片测试机领域，我们立下宏远目标：聚焦尖端技术研发，致力成为全球芯片测试的领跑者！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,42 +133,6 @@
 （永元）
 没错！下面，就让我们用最热烈的掌声，有请我们昂科集团董事长——黄总，上台为我们做新春致辞！大家掌声欢迎！
 （播放3 黄总致辞音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（陈慧）想要赢取惊喜奖品的朋友请注意啦！我们朋友圈的集赞活动仍在火热进行中！带上昂科集团2026年度盛典词条发送朋友圈，在九点前将点赞截图发给邹霞，点赞排名前3名的朋友可以获得我们的大奖哦~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（高峰）有请颁奖嘉宾XXX为他们颁发这份承载着感恩与敬意的奖项。有请代表发言、请合影留念。
-（合影留念）
-（陈慧）桃李不言，下自成蹊。感谢各位导师的付出，也感谢颁奖嘉宾。请回座休息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎 深圳市海铭德科技有限公司总经理——蒋祖元先生（蒋总）！
-欢迎 工信部第五电子研究所重点实验室技术总师——杨少华博士（杨博士）！
-欢迎 东莞市方科讯科技有限公司总经理张民先生（张总）及其团队！
-欢迎 深圳市优尚得智能设备有限公司总经理钟海长先生（钟总）及其团队！
-欢迎 华技达公司总经理——彭斌先生（彭总）！欢迎  广东省电子学会SMT专业委员会会长——汪勇先生（汪会长）及其团队！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 张总致辞
-（陈慧）再次感谢黄总高瞻远瞩的精彩致辞！您描绘的宏伟蓝图和那份对未来的坚定信念，不仅深深的感染了我们，更为我们注入了前行的无穷动力。
-（高峰）是的，方向已定，未来可期！在您的引领下，我们昂科人必将以无畏的勇气，去突破新的高度，去书写新的传奇！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（陈慧）今天我们还隆重邀请到了一位重量级嘉宾。
-（高峰）他就是张总，下面请张总为我们传递他的思考和对未来的展望。有请！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 合唱
-（永元）非常感谢张总充满远见与温度的分享！
-您的话语如春风化雨，让我们深切体会到：昂科今日之成就，并非孤峰独秀，而是无数同行者以信任为舟、以信念为帆，共渡风浪、同启新程的成果。
-（秀梅）心中有信仰，脚下有力量。接下来，让我们把掌声和目光交给公司的核心力量 ——EMT成员！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,15 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 介绍嘉宾
-（永元）
-尊敬的各位来宾、亲爱的昂科同仁们：
-今晚，我们非常荣幸地邀请到了多位重量级嘉宾莅临2026昂科年度盛典。现在，请允许我隆重介绍出席本次盛会的各位贵宾——
-首先，让我们以热烈的掌声欢迎：
-昂科技术首席顾问——邓涛老师！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3 黄总致辞与EMT成员合唱
 3.1 黄总致辞
 （秀梅）从深圳到四海，从烧录到测试，昂科的每一步突破，都离不开在座各位的信任与托举。感谢客户伙伴的鼎力支持，感谢全体员工的日夜兼程！再次欢迎大家的到来！
@@ -323,17 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（永元）求本求真求极致，共创共享共成长！昂科战士们将用最嘹亮的歌声，唱出必胜的信念，唱出属于昂科人的万丈豪情！掌声有请 EMT 成员，为我们带来大合唱 ——《昂科战歌》！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 子公司祝福视频
-（陈慧）感谢EMT成员！这一曲《昂科战歌》唱得气势如虹、振奋人心，每一句歌词都凝聚着昂科人的信念，每一段旋律都激荡着我们前行的力量！
-（高峰）歌声犹在耳畔，征途已然启航。战歌的嘹亮，是我们对过去的总结，也是对未来的展望。
-（陈慧）而这份展望的信心，不仅仅只是总部家人们的功劳，更来自遍布全国的昂科大家庭中。无论我们的伙伴身在何方，心都朝着同一个方向。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（高峰）诚然，我们来自五湖四海，散作满天星；但今夜，心光汇聚，终成一团火。
 为表达这份以“芯”传情的牵挂，子公司的同仁们，特意录制了一段饱含深情的祝福——
 （陈慧）现在，就让我们一同聆听来自远方的问候，感受这份“芯”心相印的温暖。请欣赏昂科全国子公司带来的联合拜年视频！</t>
@@ -347,22 +182,6 @@
   </si>
   <si>
     <t>（秀梅）今晚，昂科少女天团再度来袭，为我们带来纳福闹新年，为大家献上活力四射的舞蹈——《马跃新程·花轿启瑞》，一起跳出活力，舞响新年！掌声有请！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1 内部表彰颁奖环节-前言
-（陈慧）
-感谢周总和他的团队用一曲《马跃新程·花轿启瑞》带来的开门红！
-这欢快的节奏，不仅舞出了我们昂扬的士气，更仿佛是我们昂科发展历程的生动写照——热情、奔放、步步高升！ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（高峰）
-笑声会停，但奋斗不会。
-在昂科，有一种信念始终如一：让技术真正落地生根、开花结果。
-而实现这一信念的，不是宏大的叙事，而是一个个具体的人——
-他们今天站在这里，值得我们用最热烈的掌声致敬。
-下面，进入2025年度内部表彰颁奖环节！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,20 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（秀梅）
-他们像破土的春笋，充满向上的力量。现在，让我们用最热烈的掌声，有请颁奖嘉宾XXX上台，为我们揭晓本年度“年度新锐奖”的获奖名单！
-（颁奖嘉宾念获奖名单）
-（永元）
-恭喜大家，有请我们的获奖者们上台，分享这份属于他们的荣耀时刻！（音乐起，获奖者上台）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（秀梅）
-有请颁奖嘉宾XXX为我们的优秀新锐们颁发证书。
-请大家合影留念，请大家入席就坐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">7.3 内部表彰颁奖环节-最佳导师奖
 （高峰）感谢充满活力的新锐们。个人的成长离不开自身的努力，也离不开引路人的悉心指点。在昂科，有这样一群人，他们传道授业，润物无声。
 （陈慧）他们是工作中的良师，也是生活中的益友。他们主动定制带教方案，耐心指导新人，不仅传授技能，更传递着正向的价值观，助力团队成员明确职业方向。
@@ -394,35 +199,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">（高峰）接下来，我们将颁发最佳导师奖。掌声有请颁奖嘉宾XXX上台为我们揭晓获奖名单！
-（颁奖嘉宾念获奖名单）
-（陈慧）恭喜获得“最佳导师奖”的各位优秀导师们，请各位导师上台领奖！（音乐起，获奖者上台）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.4 内部表彰颁奖环节-明日之星奖
-（永元）优秀的导师为我们点亮了前行的路，而路上，正有一群追光者快速成长。他们不满足于现状，主动学习新知识、新技能。
-（秀梅）他们最可贵的是能将所学迅速应用于实践，实现了个人能力与工作成果的双重提升，他们的进步有目共睹，他们是昂科未来的希望。
-（永元）下面，我们要颁发的是明日之星奖。掌声有请颁奖嘉宾XXX上台为我们揭晓获奖名单！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（颁奖嘉宾念获奖名单）
-（秀梅）有请荣获“明日之星奖”的同事们上台领奖！（音乐起，获奖者上台）
-（永元）有请颁奖嘉宾XXX为他们颁授这份象征潜力与未来的奖项。
-（秀梅）请各位星星们和颁奖嘉宾一起，记录下这星光熠熠的时刻。看镜头，保持微笑！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（合影留念）
 （永元）祝贺你们！愿你们如冉冉升起的星辰，光芒愈发耀眼。感谢颁奖嘉宾，请各位回座。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.5 内部表彰颁奖环节-突出贡献奖
-（陈慧）仰望了新星的光芒，我们更要致敬那些奠定公司基石的坚实力量。在过去的一年里，公司在多个重点项目和关键任务中取得了突破，这离不开一批核心骨干的卓越贡献。
-（高峰）他们攻坚克难，业绩斐然。他们用智慧和汗水，为公司创造了显著的经济效益或品牌价值，是昂科当之无愧的中流砥柱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,13 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（永元）让我们掌声有请颁奖嘉宾XXX上台为我们揭晓获奖名单！
-（颁奖嘉宾念获奖名单）
-（秀梅）有请获得“最佳协作奖”的团队协作者们上台！（音乐起，获奖者上台）
-（永元）有请颁奖嘉宾XXX为他们颁发这一体现团队精神至高荣誉的奖项。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8 节目2：《小人舞》
 （秀梅）从这份庄重的荣誉感，切换到充满奇思妙想的舞台，正需要我们昂科人的创新精神。而说到创新和想象力，这恰恰是我们研发平台部门同事们的拿手好戏！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,69 +221,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（高峰）没错！让我们开启今晚的连环幸运好礼的第一环！——抽取三等奖，红包1000元！这份幸运将会花落谁家呢？让我们拭目以待！
-（陈慧）我们掌声有请我们的抽奖嘉宾——x总上台！（9 音频播放BGM）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（高峰）有请x总来到我们的抽奖箱前。请您为我们开启今晚的首轮幸运，共同见证这份喜悦。幸运之神，即将降临！
-（陈慧）准备好了吗？现在，有请X总为我们抽取三等奖前5个名额——！
-（高峰）①恭喜以上获奖伙伴，请上台领奖
-②请X总为他们颁奖
-③请大家合影留念，请大家入席就坐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10 节目6：高雅人士企鹅舞
 （陈慧）（面向主持人高峰）刚刚的抽奖环节真是激动人心！不过峰哥，听说最近有支舞在职场圈特别火，被大家称作是“优雅从容应对压力”的真实写照。
 （高峰）哦~我知道！你说的是不是那只戴着墨镜、系着领结，看似一本正经，跳起舞来却特别有感染力的“绅士企鹅舞”？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.1 第2轮抽奖——二等奖，共16个名额——抽1-5名
-（高峰）
-感谢测试事业部两位同事带来这支《高雅人士企鹅舞》！看似笨拙的舞步，实则藏着一种职场智慧：真正的从容，不是从不跌倒，而是笑着站起来继续前行。
-（陈慧）祝福过后，我们的心跳还得再加速一下！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（高峰）没错！马上要开启的，是我们今晚连环幸运好礼的第二环——抽取二等奖！这份沉甸甸的幸运，最终将会花落谁家？让我们拭目以待！ 
-（陈慧）接下来，让我们用热烈的掌声，有请我们的抽奖嘉宾——X总 上台！ 
-（高峰）现在，有请X总为我们抽取二等奖！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（抽奖环节开始，嘉宾从抽奖箱中抽取号码球或卡片，交由主持人宣读）
-（高峰）（根据嘉宾抽取的结果宣读）恭喜！中奖的幸运人是——XXX！请中奖的同事举手示意，并在工作人员的引导下上台领奖！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.4 第2轮抽奖 结束语
-（陈慧）让我们再次以热烈的掌声祝贺他们！也再次衷心感谢我们的抽奖嘉宾们！
-（高峰）愿这份好运伴随你们整个2026年！同时，也请暂时还未中奖的朋友们保持期待，因为更大的惊喜，往往压轴出场！
-（陈慧）想要赢取惊喜奖品的朋友请注意啦！我们朋友圈的集赞活动仍在火热进行中！带上昂科集团2026年度盛典词条发送朋友圈，在九点前将点赞截图发给邹霞，点赞排名前3名的朋友可以获得我们的大奖哦~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 节目4：合唱《业绩开出花》
-（永元）
-再次恭喜所有获得二等奖的幸运伙伴！
-这份幸运，是新年送来的第一份礼物，更是对过去一年踏实前行的温柔回应。
-（秀梅）
-说得真好！而我们知道，最好的运气，莫过于团队的同心协力；最美的果实，一定源于平时的辛勤耕耘。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">13.1 游戏环节-引入
 （秀梅）
 非常感谢华南销售同事们带来的精彩演唱！《业绩开出花》，正是对他们奋斗历程的最好诠释！让我们用掌声预祝他们的业绩之花，绽放得更加绚丽！ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（永元）
-接下来，让我们通过一场趣味互动，见证昂科团队心有灵犀的瞬间。
-（秀梅）
-没错！马上要进入的就是今晚最有趣、最考验表达和理解的互动游戏环节——“默契猜词挑战”！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,12 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（游戏环节）--需要随机应变，某些人可能答错，某些人可能答案重复，同时需要主持人充当裁判
-（秀梅）
-好，恭喜xxx获得我们的奖品……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">14.1入职周年颁奖-前言
 （永元）感谢各位同事在游戏中的全情投入和精彩表现，大家的机智与默契让现场充满了欢声笑语，也让我们看到了昂科人工作之外充满活力的另一面！
 （秀梅）没错！但企业的辉煌，不仅需要开场时的这股冲劲，更离不开日复一日的坚守与耕耘。在我们中间，就有一群可敬的伙伴，他们将人生中最宝贵的三年、五年、甚至十年时光，都奉献给了昂科这片创新的热土。 </t>
@@ -674,12 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（永元）有请唐湘毅唐总上台为我们公布获奖名单。
-（秀梅）让我们以热烈的掌声，有请以上入职3周年的伙伴们上台领奖！
-（永元）有请代表发言、请合影留念、请入席就坐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14.3入职周年颁奖-5周年
 （循环播放入职五周年音乐）
 （高峰）从“三载耕耘”的幼苗，到“五年成木”的栋梁，时间的厚度赋予成长不同的分量。
@@ -687,12 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（高峰）有请傅国傅总上台为我们公布获奖名单。
-（陈慧）让我们以热烈的掌声，有请以上入职5周年的伙伴们上台领奖！
-（高峰）有请代表发言、请合影留念、请入席就坐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14.4入职周年颁奖-10周年
 （循环播放入职十周年音乐）
 （永元）感谢五周年的伙伴！从五年的中流砥柱，到十年的磐石根基，这是一段用青春书写的传奇。
@@ -705,18 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14.5入职周年颁奖-结束语
-（循环播放14.5音乐）
-（永元）面对我们这些一直坚守岗位，辛勤付出的员工，李志军Mike总有什么想对他说的？
-（秀梅）我们______有什么想说的吗？(员工代表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（永元）
-感谢_______(代表)的精彩发言，也让我们再次把热烈的掌声送给所有获奖的伙伴，感谢你们的付出！这份荣誉属于过去，更将照亮我们并肩前行的未来！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15.1 一等奖抽奖：共8个名额——抽1-4名
 （永元）再次用热烈的掌声，祝贺所有获奖的伙伴！
 这份荣誉，是肯定，更是灯塔——照亮我们每一位昂科人在2026年继续前行的方向。
@@ -724,11 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（永元）是的！惊喜一重接一重，马上揭晓的是一等奖！奖金2000元！究竟哪些朋友能率先将这份好运带回家？让我们拭目以待！
-（秀梅）幸运的谜底，需要一位重要的嘉宾来为我们揭晓。现在，让我们用热烈的掌声，有请周茜周总上台，为我们抽取今晚的一等奖的幸运儿！掌声有请！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（永元）
 准备好了吗？现在，有请周茜周总为我们抽取一等奖！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -747,10 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（秀梅）说到这份宁静，元哥，你可能不知道——我们今年新加入的同事中，藏着一位“创作型才子”！他就是来自上海团队的秦乙谋。今晚，他将首次登上年会舞台，献上一首原创歌曲——《Fairy Tales》。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（永元）童话从不只属于孩子，它往往盛着最真实的心事。那么，就让我们以最安静的聆听，最温柔的掌声，欢迎秦乙谋，用歌声带我们走进——这个属于昂科人的“芯”童话。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,22 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（永元）现在，让我们以热烈掌声，有请颁奖嘉宾傅国傅总上台，为我们揭晓获奖名单并颁奖！
-（播放19号背景音乐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 节目7：《我相信》
-（陈慧）再次恭喜所有获奖的同事！这份荣誉不仅是人气的见证，更是大家对努力与热爱的最好回应。
-（高峰）每一次点赞，都是一份鼓励；每一次互动，都是一份温暖。在昂科，我们用掌声传递力量，用支持点亮彼此。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（陈慧）而在这个充满希望的夜晚，我们更愿意把掌声送给每一个相信未来、敢于追梦的自己。
-（高峰）接下来，让我们用热烈的欢呼，有请沃得福团队带来充满力量与信念的唱跳曲目——《我相信》，让他们用歌声点燃全场，让我们一起相信，一起闪耀！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20.1 销售颁奖-前言
 （高峰）感谢沃得福团队带来的《我相信》！刚刚那一段充满力量的唱跳，不仅点燃了全场的热情，也让我们再次感受到 “相信” 的力量 —— 相信自己、相信团队、相信未来。这首青春飞扬的歌曲，每个音符都像在邀请你，踏入那束不褪色的光，在人生道路上永远奔跑，永远年轻。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -798,13 +460,6 @@
   <si>
     <t>20.2 销售颁奖-2025年奋进楷模销售铜奖
 （陈慧）现在，让我们进入销售表彰颁奖环节，共同见证这些市场先锋们的荣耀时刻！首先，我们将要颁发的是2025年奋进楷模销售铜奖。这个奖项旨在表彰那些在过去一年里，目标坚定、踏实奋进、不断超越自我的伙伴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（高峰）掌声有请颁奖嘉宾xxx 上台揭晓获奖名单并颁奖！
-（嘉宾上台，公布获奖名单并颁奖）
-（陈慧）恭喜！请颁奖嘉宾与我们的获奖者移步到舞台中央，让我们用镜头定格这值得纪念的一刻！
-（引导合影）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -821,13 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（高峰）让我们以最热烈的掌声，有请颁奖嘉宾XXX上台，为我们揭晓本届金奖的最终归属！
-（嘉宾上台公布获奖名单）
-（陈慧）有请获奖者XXX上台，请合影留念！
-（引导合影）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21.1 节目评选&amp;颁奖
 （高峰）今晚，我们见证了荣誉，也收获了满满的欢笑与感动。而此刻，今晚最精彩的一项荣誉，即将由我们现场的每一位共同决出
 （陈慧）没错！今晚的节目真是精彩纷呈！风格齐聚的舞蹈带给我们视觉的享受，扣人心弦的歌声引发我们情感的共鸣，每一个节目都凝聚了表演者们的心血，都是我们昂科人才华与活力的闪耀瞬间。那么，究竟哪个节目能摘得“最佳节目奖”的桂冠，这个决定权，就交到在座每一位的手中！</t>
@@ -843,6 +491,403 @@
 （永元）没有抽到的伙伴们也不要灰心，我们一等奖还有4个名额，掌声再请周茜周总帮我们抽取4位幸运观众；
 （秀梅）恭喜以上获奖伙伴，请上台领奖。
 请大家合影留念，请大家入席就坐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（秀梅）
+欢迎 深圳市湖北商会SMT协会会长----邱阳 邱总
+欢迎 化山论剑----杨鹏 杨总及化山论剑团队
+欢迎 SMT行业头条----李亚仔 李总
+欢迎 苏州永创智能科技有限公司总经理----余学维 余总
+欢迎 东莞市海洛电子科技有限公司总经理----张少亮 张总及团队
+欢迎 深圳市恒天泰科技有限公司总经理----胡远令 胡总及团队
+欢迎 普利明(苏州)电子科技有限公司总经理----曹海波 曹总及团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）
+欢迎 东莞市拓恒电子有限公司总经理----赖军元 赖总
+欢迎 东莞市嘉多利精密电子有限公司----李梦磊 李总
+欢迎 永鸣电子----刘雪军 刘总
+欢迎 东莞市迪洛斯电子科技有限公司总经理----柳鑫 柳总及团队
+欢迎 宏芯宇副总经理----李文俊 李总及团队
+欢迎 德明利总监----钟鸣宇 钟总
+欢迎 河北美泰电子主任----张主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（陈慧）
+欢迎 中测半导体总经理----刘勇 刘总及团队
+欢迎 芯录微半导体总经理----赵淑娟 赵总及团队
+欢迎 一步步新技术总编辑----胡婴 胡总编
+欢迎 ASPENCORE电子工程专辑总经理----靳毅 靳总及团队
+欢迎 深圳市半导体协会副秘书长----寿爱华 寿秘书长
+欢迎 昆山三爱司总经理----李钦毅 李总
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（陈慧）
+感谢各位嘉宾在百忙之中拨冗出席！您的到来，为昂科的开年盛典增添了无限荣光！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+（高峰）是的，方向已定，未来可期！在您的引领下，我们昂科人必将以无畏的勇气，去突破新的高度，去书写新的传奇！
+（陈慧）今天我们还隆重邀请到了一位重量级嘉宾。
+（高峰）他就是张总，下面请张总为我们传递他的思考和对未来的展望。有请！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（秀梅）
+有请颁奖嘉宾林总为我们的优秀新锐们颁发证书。
+请大家合影留念，请大家入席就坐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（高峰）接下来，我们将颁发最佳导师奖。掌声有请颁奖嘉宾彭晶-彭总上台为我们揭晓获奖名单！
+（颁奖嘉宾念获奖名单）
+（陈慧）恭喜获得“最佳导师奖”的各位优秀导师们，请各位导师上台领奖！（音乐起，获奖者上台）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4 内部表彰颁奖环节-明日之星奖
+（永元）优秀的导师为我们点亮了前行的路，而路上，正有一群追光者快速成长。他们不满足于现状，主动学习新知识、新技能。
+（秀梅）他们最可贵的是能将所学迅速应用于实践，实现了个人能力与工作成果的双重提升，他们的进步有目共睹，他们是昂科未来的希望。
+（永元）下面，我们要颁发的是明日之星奖。掌声有请颁奖嘉宾莫文（莫总）/刘超（院长）上台为我们揭晓获奖名单！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（陈慧）此刻，我们将颁发备受瞩目的突出贡献奖。让我们用热烈的掌声，有请颁奖嘉宾李中燕李总上台，为我们揭晓获奖名单！
+（颁奖嘉宾念获奖名单）
+（高峰）感谢这些功臣们，有请获得“突出贡献奖”的功臣们登上荣誉的舞台！（音乐起，获奖者上台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（永元）让我们掌声有请颁奖嘉宾郭翘郭总/彭晶彭总上台为我们揭晓获奖名单！
+（颁奖嘉宾念获奖名单）
+（秀梅）有请获得“最佳协作奖”的团队协作者们上台！（音乐起，获奖者上台）
+（永元）有请颁奖嘉宾郭翘郭总/彭晶彭总为他们颁发这一体现团队精神至高荣誉的奖项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）没错！让我们开启今晚的连环幸运好礼的第一环！——抽取三等奖，红包1000元！这份幸运将会花落谁家呢？让我们拭目以待！
+（陈慧）我们掌声有请我们的抽奖嘉宾——余学维余总上台！（9 音频播放BGM）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2 第1轮抽奖：三等奖，共20个名额——抽6-10名
+（高峰）再请张少亮张总帮我们抽取5位幸运观众；
+（陈慧）恭喜以上获奖伙伴，请上台领奖
+请大家合影留念，请大家入席就坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3 第1轮抽奖：三等奖，共20个名额——抽11-15名
+（陈慧）接下来有请曹海波曹总帮我们抽取5位幸运观众；
+（高峰）恭喜以上获奖伙伴，请上台领奖
+请大家合影留念，请大家入席就坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1 第2轮抽奖——二等奖，共16个名额——抽1-4名
+（高峰）
+感谢测试事业部两位同事带来这支《高雅人士企鹅舞》！看似笨拙的舞步，实则藏着一种职场智慧：真正的从容，不是从不跌倒，而是笑着站起来继续前行。
+（陈慧）祝福过后，我们的心跳还得再加速一下！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.2 第2轮抽奖：二等奖，共16个名额——抽5-8名
+（高峰）再请彭晶--彭总帮我们抽取4位幸运观众；
+（陈慧）恭喜以上获奖伙伴，请上台领奖
+请大家合影留念，请大家入席就坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）没错！马上要开启的，是我们今晚连环幸运好礼的第二环——抽取二等奖！这份沉甸甸的幸运，最终将会花落谁家？让我们拭目以待！ 
+（陈慧）接下来，让我们用热烈的掌声，有请我们的抽奖嘉宾——郭翘--郭总 上台！ 
+（高峰）现在，有请郭总为我们抽取二等奖！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 第2轮抽奖 结束语
+（陈慧）让我们再次以热烈的掌声祝贺他们！也再次衷心感谢我们的抽奖嘉宾们！
+（高峰）愿这份好运伴随你们整个2026年！同时，也请暂时还未中奖的朋友们保持期待，因为更大的惊喜，往往压轴出场！
+（陈慧）想要赢取惊喜奖品的朋友请注意啦！我们朋友圈的集赞活动仍在火热进行中！带上昂科集团2026年度盛典词条发送朋友圈，在九点前将点赞截图发给邹霞，点赞排名前3名的朋友可以获得我们的大奖哦~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）掌声有请颁奖嘉宾唐湘毅唐总上台揭晓获奖名单并颁奖！
+（嘉宾上台，公布获奖名单并颁奖）
+（陈慧）恭喜！请颁奖嘉宾与我们的获奖者移步到舞台中央，让我们用镜头定格这值得纪念的一刻！
+（引导合影）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 介绍嘉宾
+（永元）
+今晚，我们非常荣幸地邀请到了多位重量级嘉宾莅临2026昂科年度盛典。现在，请允许我隆重介绍出席本次盛会的各位贵宾——
+首先，让我们以热烈的掌声欢迎：
+昂科技术首席顾问——邓涛老师！//要鼓掌吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎 深圳市海铭德科技有限公司总经理——蒋祖元（蒋总）！
+欢迎 工信部第五电子研究所重点实验室技术总师——杨少华博士！
+欢迎 东莞市方科讯科技有限公司总经理张民（张总）及其团队！
+欢迎 深圳市优尚得智能设备有限公司总经理钟海长（钟总）及其团队！
+欢迎 华技达公司总经理——彭斌（彭总）！
+欢迎 广东省电子学会SMT专业委员会会长——汪勇（汪会长）及其团队！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 张总致辞
+（陈慧）再次感谢黄总高瞻远瞩的精彩致辞！求本求真求极致，共创共享共成长！——这句坚定有力的价值观，指引着每一位昂科人前进的方向。
+（备用）您描绘的宏伟蓝图和那份对未来的坚定信念，不仅深深的感染了我们，更为我们注入了前行的无穷动力。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 合唱
+（永元）非常感谢张总充满远见与温度的分享！
+您的话语如春风化雨，让我们深切体会到：昂科今日之成就，并非孤峰独秀，而是无数同行者以信任为舟、以信念为帆，共渡风浪、同启新程的成果。
+（秀梅）心中有信仰，脚下有力量。接下来，让我们把掌声和目光交给公司的核心力量 ——EMT及核心成员！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（永元）(求本求真求极致，共创共享共成长！)
+昂科战士们将用最嘹亮的歌声，唱出必胜的信念，唱出属于昂科人的万丈豪情！掌声有请EMT及核心成员，为我们带来大合唱 ——《昂科战歌》！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 子公司祝福视频
+（陈慧）感谢EMT及核心成员！这一曲《昂科战歌》唱得气势如虹、振奋人心，每一句歌词都凝聚着昂科人的信念，每一段旋律都激荡着我们前行的力量！
+（高峰）歌声犹在耳畔，征途已然启航。战歌的嘹亮，是我们对过去的总结，也是对未来的展望。
+（陈慧）而这份展望的信心，不仅仅只是总部家人们的功劳，更来自遍布全国的昂科大家庭中。无论我们身在何方，心都朝着同一个方向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 内部表彰颁奖环节-前言（四个主持人共同上场）
+（陈慧）
+感谢周总和他的团队用一曲《马跃新程·花轿启瑞》带来的开门红！
+这欢快的节奏，不仅舞出了我们昂扬的士气，更仿佛是我们昂科发展历程的生动写照——热情、奔放、步步高升！ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）
+笑声会停，但奋斗不会。
+在昂科，有一种信念始终如一：让技术真正落地生根、开花结果。
+而实现这一信念的，不是宏大的叙事，而是一个个具体的人——
+他们今天站在这里，值得我们用最热烈的掌声致敬。
+下面，进入2025年度内部表彰颁奖环节！
+（高峰&amp;陈慧下场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（秀梅）
+他们像破土的春笋，充满向上的力量。现在，让我们用最热烈的掌声，有请颁奖嘉宾040林总上台，为我们揭晓年度“新锐奖”的获奖名单！
+（颁奖嘉宾念获奖名单）
+（永元）
+恭喜大家，有请我们的获奖者们上台，分享这份属于他们的荣耀时刻！（音乐起，获奖者上台）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）有请颁奖嘉宾彭总为他们颁发这份承载着感恩与敬意的奖项。有请代表发言、请合影留念。
+（合影留念）
+（陈慧）桃李不言，下自成蹊。感谢各位导师的付出，也感谢颁奖嘉宾彭总。请回座休息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（颁奖嘉宾念获奖名单）
+（秀梅）有请荣获“明日之星奖”的同事们上台领奖！（音乐起，获奖者上台）
+（永元）有请颁奖嘉宾莫文（莫总）/刘超（院长）为他们颁授这份象征潜力与未来的奖项。
+（秀梅）请各位星星们和颁奖嘉宾一起，记录下这星光熠熠的时刻。
+（看镜头，保持微笑！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5 内部表彰颁奖环节-突出贡献奖
+（陈慧）仰望了新星的光芒，我们更要致敬那些奠定公司基石的坚实力量。在过去的一年里，公司在多个重点项目和关键任务中取得了突破，这离不开一批核心骨干的卓越贡献。
+（高峰）他们攻坚克难，业绩斐然。他们用智慧和汗水，为公司创造了显著的经济效益和品牌价值，是昂科当之无愧的中流砥柱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（陈慧）有请颁奖嘉宾李总为他们颁发这份沉甸甸的、象征莫高荣誉的奖项。
+（高峰）请各位贡献者和颁奖嘉宾合影。这是对你们卓越功绩的最好褒奖，感谢你们！看镜头，记录辉煌！
+（合影留念）
+（陈慧）一份付出，一份收获。感谢你们的突出贡献，也感谢颁奖嘉宾。请大家回到席位上就坐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）有请余总来到我们的抽奖箱前。请您为我们开启今晚的首轮幸运，共同见证这份喜悦。幸运之神，即将降临！
+（陈慧）准备好了吗？现在，有请余总为我们抽取三等奖前5个名额——！
+（高峰）①恭喜以上获奖伙伴，请上台领奖
+②请余总为他们颁奖
+③请大家合影留念，请大家入席就坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 第1轮抽奖：三等奖，共20个名额——抽16-20名
+（陈慧）最后的5个抽奖名额究竟会花落谁家呢？我们有请赖军元赖总帮我们抽取本轮奖项的最后5位幸运观众；
+（高峰）恭喜以上获奖伙伴，请上台领奖
+请大家合影留念，请大家入席就坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（抽奖环节开始，嘉宾从抽奖箱中抽取号码球或卡片，交由主持人宣读）
+（高峰）（根据嘉宾抽取的结果宣读）恭喜以上获奖伙伴，请上台领奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3 第2轮抽奖：二等奖，共16个名额——抽9-12名
+（陈慧）接下来有请刘超--刘院长帮我们抽取4位幸运观众；
+（高峰）恭喜以上获奖伙伴，请上台领奖
+请大家合影留念，请大家入席就坐</t>
+  </si>
+  <si>
+    <t>11.4 第2轮抽奖：二等奖，共16个名额——抽13-16名
+（陈慧）我们还有最后一轮，有请040--林总帮我们抽取4位幸运观众；
+（高峰）恭喜以上获奖伙伴，请上台领奖
+请大家合影留念，请大家入席就坐</t>
+  </si>
+  <si>
+    <t>（永元）是的！惊喜一重接一重，马上揭晓的是一等奖！奖金2000元！究竟哪些朋友能率先将这份好运带回家？让我们拭目以待！
+（秀梅）幸运的谜底，需要一位重要的嘉宾来为我们揭晓。现在，让我们用热烈的掌声，有请周茜周总上台，为我们抽取今晚的一等奖的幸运观众！掌声有请！</t>
+  </si>
+  <si>
+    <t>12 节目4：合唱《业绩开出花》--（主持人提前上场）
+（永元）
+再次恭喜所有获得二等奖的幸运伙伴！
+这份幸运，是新年送来的第一份礼物，更是对过去一年踏实前行的温柔回应。
+（秀梅）
+说得真好！而我们知道，最好的运气，莫过于团队的同心协力；最美的果实，一定源于平时的辛勤耕耘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（永元）
+接下来，让我们通过一场趣味互动，见证昂科团队心有灵犀的瞬间。
+（秀梅）
+没错！马上要进入的就是今晚最有趣、最考验表达和理解的互动游戏环节——“默契问答挑战”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（永元）
+（例如"公司里面有什么"）(如"笔""记""本"连成"笔记本")。答案不可重复，若小组答错、超时(3秒内没有答出)或重复之前答过的答案，则被淘汰。每淘汰一组，将更换一个问题。--需念ppt
+（秀梅）
+剩余小组继续比赛，最终留下的队伍获胜，组内成员获得抽签资格，依据抽签结果获得不同奖品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（游戏环节）--需要随机应变，某些人可能答错，某些人可能答案重复，同时需要主持人充当裁判
+（秀梅）
+好，恭喜第X组获得我们的奖品……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（永元）有请唐湘毅唐总上台为我们公布获奖名单。
+（秀梅）让我们以热烈的掌声，有请以上入职3周年的伙伴们上台领奖！
+（永元）有请任红星作为代表进行发言、请合影留念、请入席就坐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）有请傅国傅总上台为我们公布获奖名单。
+（陈慧）让我们以热烈的掌声，有请以上入职5周年的伙伴们上台领奖！
+（高峰）有请张勇代表发言、请合影留念、请入席就坐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.5入职周年颁奖-结束语
+（循环播放14.5音乐）
+（永元）面对我们这些一直坚守岗位，辛勤付出的员工，李志军Mike总有什么想对他说的？
+（秀梅）我们少水哥有什么想说的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（秀梅）说到这份宁静，元哥，你可能不知道——我们今年新加入的同事中，藏着一位“创作型才子”！他就是来自上海销售团队的秦乙谋。今晚，他将首次登上年会舞台，献上一首原创歌曲——《Fairy Tales》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（永元）现在，让我们以热烈掌声，有请颁奖嘉宾傅总上台，为我们揭晓获奖名单并颁奖！
+（播放19号背景音乐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+（陈慧）再次恭喜所有获奖的同事！这份荣誉不仅是人气的见证，更是大家对努力与热爱的最好回应。
+（高峰）每一次点赞，都是一份鼓励；每一次互动，都是一份温暖。在昂科，我们用掌声传递力量，用支持点亮彼此。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19 节目7：《我相信》
+（高峰）说得非常好。无论是用心唱好一首歌，还是用心服务好每一位客户，背后都需要同样的真诚与努力。接下来，我们要表彰的，正是在销售岗位上将专业与热忱转化为卓越业绩的伙伴们。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（陈慧）而在这个充满希望的夜晚，我们更愿意把掌声送给每一个相信未来、敢于追梦的自己。
+（高峰）接下来，让我们用热烈的掌声，有请沃得福团队带来充满力量与信念的唱跳曲目——《我相信》，让他们用歌声点燃全场，让我们一起相信，一起闪耀！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（秀梅）有请颁奖嘉宾唐湘毅唐总为我们揭晓答案！
+（嘉宾上台，公布获奖名单并颁奖）
+（永元）有请获奖者上台，请合影留念！
+（引导合影）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）让我们以最热烈的掌声，有请颁奖嘉宾唐湘毅唐总为我们揭晓本届金奖的最终归属！
+（嘉宾上台公布获奖名单）
+（陈慧）有请获奖者上台，请合影留念！
+（引导合影）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.2 节目评选颁奖
+（陈慧）好的，投票通道即将关闭！感谢大家的积极参与！现在，最终的结果已经在我们手中的这张卡片上！今晚节目的前三名究竟是谁呢？让我们共同揭晓！
+（高峰）获得深圳市昂科技术有限公司2026“AI梦想·芯未来”开年盛典——节目第一名的是……（可制造悬念稍作停顿）——《XXXXX》！恭喜他们！第二名的是《xxx》，恭喜他们！第三名的是《xxx》恭喜他们！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（陈慧）让我们用最热烈的掌声，有请以上三个节目的团队代表上台，接受这份属于他们的荣耀！同时，掌声有请颁奖嘉宾傅总上台为他们颁奖！
+（高峰）再次恭喜获得最佳节目奖的表演者们！他们的表演真是实至名归，为我们留下了今晚最难忘的回忆之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（陈慧）现在，让我们用最热烈、最持久的掌声，恭请这位我们今晚重量级的开奖嘉宾——张鹏程张总上台！
+（高峰）（嘉宾上台时）掌声再热烈一些！有请张总为我们开启这份最大幸运！也请全场的朋友们，屏息凝视，共同见证今晚最幸运的明星诞生！ 
+请大家合影留念，请大家入席就坐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 惊喜奖
+(永元)刚才的抽奖大家过瘾了吗？（等待互动）我看很多伙伴还意犹未尽！别停——惊喜继续！
+（秀梅）让我们首先把最热烈的掌声，献给_________________________！感谢他们的鼎力支持与慷慨加码——追加5个超级幸运名额！
+(永元)让我们用全场沸腾的声音，迎接这份惊喜！
+有请________________________为我们揭晓这份幸运！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（CUE流程）
+有请获奖者上台，请合影留念！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.1 阳光普照
+（高峰）恭喜以上幸运观众！这份压轴大奖，不仅是一份惊喜，更是2026年好运的序章——愿它伴你一路生花，也照亮我们共同前行的路。
+（永元）温暖延续，惊喜不停。今晚大屏幕上暂未中奖的小伙伴们，均可获得一份2026昂科集团年会纪念品一份，请上台领取。让闪闪金箔，照亮我们继续前行的路！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.2 合影留念
+（秀梅）同时请所有获得抽奖红包的伙伴们上台等待合影。
+（抽奖人员上台）
+（永元）有请各位领导移步舞台中央，请所有同事往前靠拢，摄影师已经就位！让我们一起对着镜头，比出最帅的手势，大声喊出我们的口号——“AI”梦想，“芯”未来！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（高峰）站在新年的起点，我们心潮澎湃！回首2025，是我们砥砺前行、硕果盈枝的一年。我们的芯片烧录机业务实现了跨越式发展，这是每一位昂科人用智慧和汗水铸就的荣耀。
+（陈慧）2026年，是AI梦想启航之年，更是“芯”未来布局的关键之年。在芯片测试机领域，我们立下宏远目标：聚焦尖端技术研发，致力成为全球芯片测试的领跑者！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1268,573 +1313,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B33F4AB-F4BC-4647-95BE-13C86103CEDA}">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="140.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="140.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="0.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="0.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="97" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="99" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="104" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="105" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
